--- a/agendamentos.xlsx
+++ b/agendamentos.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Prof. Técnico</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Agendado</t>
         </is>
       </c>
     </row>

--- a/agendamentos.xlsx
+++ b/agendamentos.xlsx
@@ -515,12 +515,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Administrador</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Agendado</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Administrador</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Agendado</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Administrador</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Agendado</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Administrador</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Agendado</t>
         </is>
       </c>
     </row>
